--- a/ransomhub/cleaned_data.xlsx
+++ b/ransomhub/cleaned_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruv Benegal\Desktop\Uni Projects\CTI_Scraper\ransomhub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvbenegal/Desktop/University/Y3/Semester 1/CS445/Group Project - Scraper/CTI_Scraper/ransomhub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A3757-0FF5-412C-BCDA-F297BBD6136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48E318-6A68-D44C-8A1A-8CE8C25367A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -464,10 +464,6 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t>- files from file servers (finance documents, employers lists and etc)
-- database with customer information and other service information</t>
-  </si>
-  <si>
     <t>infotexim.pe&lt;Auction&gt;</t>
   </si>
   <si>
@@ -1391,6 +1387,10 @@
   </si>
   <si>
     <t>Libya</t>
+  </si>
+  <si>
+    <t>files from file servers (finance documents, employers lists and etc)
+database with customer information and other service information</t>
   </si>
 </sst>
 </file>
@@ -1783,22 +1783,29 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
-    <col min="6" max="13" width="5.81640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="75.81640625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.81640625" style="4"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="75.83203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1853,19 +1860,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -1877,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <v>0</v>
@@ -1886,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1897,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>127</v>
@@ -1930,7 +1937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1941,10 +1948,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1974,7 +1981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -2015,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -2026,10 +2033,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -2059,7 +2066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2070,11 +2077,11 @@
         <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
@@ -2082,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -2103,7 +2110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -2111,10 +2118,10 @@
         <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2144,7 +2151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2155,16 +2162,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -2188,7 +2195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2199,13 +2206,13 @@
         <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -2232,7 +2239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -2243,19 +2250,19 @@
         <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -2276,7 +2283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -2287,10 +2294,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2320,7 +2327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2331,10 +2338,10 @@
         <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -2364,7 +2371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -2375,16 +2382,16 @@
         <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
@@ -2408,7 +2415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2419,16 +2426,16 @@
         <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -2452,7 +2459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -2463,10 +2470,10 @@
         <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2496,7 +2503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2504,10 +2511,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -2537,7 +2544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
@@ -2548,10 +2555,10 @@
         <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2581,7 +2588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2589,43 +2596,43 @@
         <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -2636,10 +2643,10 @@
         <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -2669,7 +2676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
@@ -2680,11 +2687,11 @@
         <v>88</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="F21" s="4">
         <v>0</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -2713,7 +2720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
@@ -2724,10 +2731,10 @@
         <v>92</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2757,7 +2764,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
@@ -2768,10 +2775,10 @@
         <v>96</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2801,7 +2808,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -2812,10 +2819,10 @@
         <v>100</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -2845,7 +2852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>102</v>
       </c>
@@ -2853,7 +2860,7 @@
         <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>127</v>
@@ -2868,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -2886,7 +2893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
@@ -2897,19 +2904,19 @@
         <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -2930,7 +2937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>108</v>
       </c>
@@ -2938,19 +2945,19 @@
         <v>109</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -2959,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
         <v>1</v>
@@ -2971,7 +2978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
@@ -2982,19 +2989,19 @@
         <v>113</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -3015,7 +3022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>114</v>
       </c>
@@ -3026,10 +3033,10 @@
         <v>116</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -3059,7 +3066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>118</v>
       </c>
@@ -3070,10 +3077,10 @@
         <v>120</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -3082,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -3103,7 +3110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
@@ -3114,10 +3121,10 @@
         <v>123</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -3126,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -3147,7 +3154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>124</v>
       </c>
@@ -3158,10 +3165,10 @@
         <v>126</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -3176,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
@@ -3188,153 +3195,153 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>127</v>
@@ -3349,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -3364,109 +3371,109 @@
         <v>1</v>
       </c>
       <c r="N36" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -3475,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
@@ -3496,109 +3503,109 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -3607,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -3628,194 +3635,194 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
+    </row>
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
+    </row>
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
+    </row>
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>127</v>
@@ -3827,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="4">
         <v>1</v>
@@ -3845,285 +3852,285 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="4" t="s">
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1</v>
-      </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1</v>
-      </c>
-      <c r="L50" s="4">
-        <v>1</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="s">
+    </row>
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="s">
+    </row>
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>1</v>
-      </c>
-      <c r="L52" s="4">
-        <v>0</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
+    </row>
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="s">
+    </row>
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -4144,36 +4151,36 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
         <v>1</v>
@@ -4194,370 +4201,370 @@
         <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3" t="s">
+    </row>
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
+    </row>
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4">
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="D59" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>1</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-      <c r="L59" s="4">
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
-      <c r="K60" s="4">
-        <v>1</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="E62" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1</v>
-      </c>
-      <c r="K62" s="4">
-        <v>1</v>
-      </c>
-      <c r="L62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="D63" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="s">
+    </row>
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -4581,499 +4588,499 @@
         <v>1</v>
       </c>
       <c r="N64" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E65" s="4" t="s">
+    </row>
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>1</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="4">
-        <v>1</v>
-      </c>
-      <c r="L66" s="4">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>1</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="E70" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
-      </c>
-      <c r="L69" s="4">
-        <v>1</v>
-      </c>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <v>1</v>
-      </c>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="E74" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>1</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <v>1</v>
-      </c>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>1</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-      <c r="H74" s="4">
-        <v>0</v>
-      </c>
-      <c r="I74" s="4">
-        <v>1</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4">
-        <v>0</v>
-      </c>
-      <c r="L74" s="4">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="E75" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <v>1</v>
-      </c>
-      <c r="J75" s="4">
-        <v>0</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0</v>
-      </c>
-      <c r="L75" s="4">
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <v>0</v>
-      </c>
-      <c r="N75" s="3" t="s">
+    </row>
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>127</v>
@@ -5103,511 +5110,511 @@
         <v>1</v>
       </c>
       <c r="N76" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="B78" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
+      </c>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4">
-        <v>0</v>
-      </c>
-      <c r="I77" s="4">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4">
-        <v>1</v>
-      </c>
-      <c r="K77" s="4">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D82" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0</v>
+      </c>
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0</v>
-      </c>
-      <c r="H78" s="4">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4">
-        <v>1</v>
-      </c>
-      <c r="J78" s="4">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4">
-        <v>0</v>
-      </c>
-      <c r="I79" s="4">
-        <v>1</v>
-      </c>
-      <c r="J79" s="4">
-        <v>0</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
-      </c>
-      <c r="L79" s="4">
-        <v>0</v>
-      </c>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0</v>
-      </c>
-      <c r="H80" s="4">
-        <v>0</v>
-      </c>
-      <c r="I80" s="4">
-        <v>1</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1</v>
-      </c>
-      <c r="K80" s="4">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-      <c r="G81" s="4">
-        <v>1</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <v>1</v>
-      </c>
-      <c r="J81" s="4">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4">
-        <v>1</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <v>1</v>
-      </c>
-      <c r="J82" s="4">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4">
-        <v>1</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>0</v>
-      </c>
-      <c r="L83" s="4">
-        <v>0</v>
-      </c>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0</v>
-      </c>
-      <c r="L84" s="4">
-        <v>0</v>
-      </c>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F85" s="4">
-        <v>1</v>
-      </c>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85" s="4">
-        <v>0</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1</v>
-      </c>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4">
-        <v>0</v>
-      </c>
-      <c r="L85" s="4">
-        <v>0</v>
-      </c>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1</v>
-      </c>
-      <c r="H86" s="4">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1</v>
-      </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4">
-        <v>0</v>
-      </c>
-      <c r="L86" s="4">
-        <v>0</v>
-      </c>
-      <c r="M86" s="4">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4">
-        <v>1</v>
-      </c>
-      <c r="J87" s="4">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
-        <v>0</v>
-      </c>
-      <c r="L87" s="4">
-        <v>1</v>
-      </c>
-      <c r="M87" s="4">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="4">
         <v>1</v>
@@ -5616,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
@@ -5631,51 +5638,51 @@
         <v>1</v>
       </c>
       <c r="N88" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F89" s="4">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0</v>
-      </c>
-      <c r="H89" s="4">
-        <v>0</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0</v>
-      </c>
-      <c r="J89" s="4">
-        <v>0</v>
-      </c>
-      <c r="K89" s="4">
-        <v>0</v>
-      </c>
-      <c r="L89" s="4">
-        <v>0</v>
-      </c>
-      <c r="M89" s="4">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
